--- a/Asistencias/Reportes_Excel/reporte_asistencia_2025-06-17.xlsx
+++ b/Asistencias/Reportes_Excel/reporte_asistencia_2025-06-17.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,9 +423,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="10.8" customWidth="1" min="3" max="3"/>
+    <col width="34.8" customWidth="1" min="1" max="1"/>
+    <col width="13.2" customWidth="1" min="2" max="2"/>
+    <col width="15.6" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +442,23 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>Carrera</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Emerson ALdair Pérez Rivera</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202500000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Electronica</t>
         </is>
       </c>
     </row>
@@ -534,7 +551,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +571,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
